--- a/数据整理/stocks/A股/上证主板/600795-国电电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600795-国电电力.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>26.05</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.28</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>26.05</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.28</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>33.75</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.28</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>33.75</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.28</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600795-国电电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600795-国电电力.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600795-国电电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600795-国电电力.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,4 +841,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9784</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010430</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商安阳债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5013</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011132</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011133</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010431</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商安阳债券C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600795-国电电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600795-国电电力.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600795-国电电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600795-国电电力.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1172,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,17 +1184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.67</v>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1333</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1219,14 +1262,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.18</v>
+          <t>010430</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商安阳债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6460</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1235,14 +1300,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>010431</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商安阳债券C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="5">
@@ -1251,13 +1422,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.27</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600795-国电电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600795-国电电力.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1343,7 +1344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1354,17 +1355,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1374,14 +1395,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.79</v>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3039</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1390,14 +1433,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>159611</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指电力ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4643</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.67</v>
       </c>
     </row>
     <row r="4">
@@ -1406,14 +1471,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>014887</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商安福1年定期开放债券</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4133</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.18</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="5">
@@ -1422,14 +1593,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="6">
@@ -1438,13 +1609,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.27</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600795-国电电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600795-国电电力.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1514,7 +1515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1525,17 +1526,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1545,14 +1566,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.18</v>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国富深化价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>97.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5829</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1561,14 +1604,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.79</v>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0271</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1577,14 +1642,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.67</v>
+          <t>159611</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指电力ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6489</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1593,14 +1680,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.18</v>
+          <t>159625</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实国证绿色电力ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1609,14 +1718,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.15</v>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1625,13 +1756,373 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>009103</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬红利优选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009102</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏扬红利优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005039</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005040</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.27</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600795-国电电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600795-国电电力.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>4.45</v>
+        <v>6.26</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>2.18</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.79</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.18</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -600,6 +617,1012 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国富深化价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2048</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159611</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指电力ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9656</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012483</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源优质龙头6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6371</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5824</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5664</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4224</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012484</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源优质龙头6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2990</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159625</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实国证绿色电力ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011980</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富兰克林国海匠心精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>561700</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>561560</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>562350</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002443</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源沪港深龙头精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011981</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富兰克林国海匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015061</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信建投沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015062</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信建投沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>970021</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>51.28</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005039</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>22.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>970020</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>51.28</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005040</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>22.11</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1066,176 +2089,6 @@
       </c>
       <c r="H12" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>217024</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>招商安盈债券</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>35.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>20.20</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.3039</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>159611</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发中证全指电力ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13.38</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.14</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4643</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>014887</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商安福1年定期开放债券</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.22</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>27.65</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4133</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1310,22 +2163,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.53</t>
+          <t>35.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20.59</t>
+          <t>20.20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1333</t>
+          <t>1.3039</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1338,36 +2191,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010430</t>
+          <t>159611</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商安阳债券A</t>
+          <t>广发中证全指电力ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.70</t>
+          <t>13.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.38</t>
+          <t>99.14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6460</t>
+          <t>0.4643</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1376,36 +2229,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010431</t>
+          <t>014887</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商安阳债券C</t>
+          <t>招商安福1年定期开放债券</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>17.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>20.38</t>
+          <t>27.65</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0058</t>
+          <t>0.4133</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1414,6 +2267,176 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1333</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010430</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商安阳债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6460</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010431</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商安阳债券C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1728,138 +2751,6 @@
       </c>
       <c r="H8" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002871</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏智胜价值成长股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.49</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.05</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1032</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002872</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏智胜价值成长股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.05</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0760</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1924,32 +2815,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001141</t>
+          <t>002871</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰达宏利创盈灵活配置混合 - A</t>
+          <t>华夏智胜价值成长股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>6.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>33.75</t>
+          <t>93.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1375</t>
+          <t>0.1032</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1962,32 +2853,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001142</t>
+          <t>002872</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰达宏利创盈灵活配置混合 - B</t>
+          <t>华夏智胜价值成长股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>33.75</t>
+          <t>93.05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0164</t>
+          <t>0.0760</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2000,6 +2891,138 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>33.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>33.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600795-国电电力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600795-国电电力.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D2" t="n">
-        <v>6.26</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>4.45</v>
+        <v>6.26</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>2.18</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1.79</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>0.18</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -616,7 +633,1675 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159611</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指电力ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9012</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012483</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源优质龙头6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5226</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012484</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源优质龙头6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2454</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014187</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银可转债债券</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>49.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159625</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实国证绿色电力ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>673100</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西部利得沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>561700</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>561560</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>016556</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>673101</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西部利得沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>38.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000030</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城核心优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014188</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006780</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发稳健策略混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005493</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>562350</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002443</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源沪港深龙头精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009103</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏扬红利优选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>37.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010124</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009102</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏扬红利优选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005833</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010125</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>38.35</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002111</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝新起点灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>167702</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>71.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001430</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中邮乐享收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>27.17</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005834</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>37.03</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005494</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1622,7 +3307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2089,176 +3774,6 @@
       </c>
       <c r="H12" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>217024</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>招商安盈债券</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>35.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>20.20</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.3039</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>159611</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发中证全指电力ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13.38</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.14</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4643</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>014887</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商安福1年定期开放债券</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.22</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>27.65</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4133</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2333,22 +3848,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.53</t>
+          <t>35.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20.59</t>
+          <t>20.20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1333</t>
+          <t>1.3039</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2361,36 +3876,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010430</t>
+          <t>159611</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商安阳债券A</t>
+          <t>广发中证全指电力ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.70</t>
+          <t>13.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.38</t>
+          <t>99.14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6460</t>
+          <t>0.4643</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2399,36 +3914,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010431</t>
+          <t>014887</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商安阳债券C</t>
+          <t>招商安福1年定期开放债券</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>17.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>20.38</t>
+          <t>27.65</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0058</t>
+          <t>0.4133</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2437,6 +3952,176 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1333</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010430</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商安阳债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6460</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010431</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商安阳债券C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2751,138 +4436,6 @@
       </c>
       <c r="H8" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002871</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏智胜价值成长股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.49</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.05</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1032</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002872</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏智胜价值成长股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.05</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0760</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2947,32 +4500,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001141</t>
+          <t>002871</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰达宏利创盈灵活配置混合 - A</t>
+          <t>华夏智胜价值成长股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>6.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>33.75</t>
+          <t>93.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1375</t>
+          <t>0.1032</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2985,32 +4538,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001142</t>
+          <t>002872</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰达宏利创盈灵活配置混合 - B</t>
+          <t>华夏智胜价值成长股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>33.75</t>
+          <t>93.05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0164</t>
+          <t>0.0760</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -3030,51 +4583,51 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -3089,12 +4642,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>26.05</t>
+          <t>33.75</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -3104,15 +4657,15 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1352</t>
+          <t>0.1375</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -3127,12 +4680,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>26.05</t>
+          <t>33.75</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -3142,14 +4695,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1352</t>
+          <t>0.0164</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>